--- a/testCase/testcases.xlsx
+++ b/testCase/testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonFiles\auto-autoAPItest-with-xlsx\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E451BCB-88A2-4C01-A593-BA4DBE862E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8255CED-0BAC-4115-8767-842F31485C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9370" yWindow="4230" windowWidth="21240" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>序号</t>
   </si>
@@ -71,49 +71,40 @@
     <t>yes</t>
   </si>
   <si>
-    <t>mall</t>
-  </si>
-  <si>
-    <t>公共模块1</t>
-  </si>
-  <si>
-    <t>机构树查询</t>
-  </si>
-  <si>
-    <t>/usercenter/version-book/org/query/1.0</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json","token": _token}</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"id":684,"orgTypes":"1,3"}</t>
-  </si>
-  <si>
     <t>"null"</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>公共模块2</t>
-  </si>
-  <si>
-    <t>到店提醒</t>
-  </si>
-  <si>
-    <t>/personnelfiles/version-book/arrival/collection/1.0</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>机构树查询11</t>
-  </si>
-  <si>
-    <t>{"id":684,"orgTypes":"1,3"}</t>
+    <t>/custom-user-dashboard-backend/auth/login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiarts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录平台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userName": "admin",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -188,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,13 +189,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -551,118 +545,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="140" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="70" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="70" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10002220</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="http://192.168.11.165:30096/usercenter/version-book/org/query/1.0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" tooltip="http://192.168.11.165:30096/usercenter/version-book/org/query/1.0" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" tooltip="http://192.168.11.165:30096/usercenter/version-book/org/query/1.0" display="/usercenter/version-book/org/query/1.0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/testCase/testcases.xlsx
+++ b/testCase/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonFiles\auto-autoAPItest-with-xlsx\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8255CED-0BAC-4115-8767-842F31485C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D5C5E-1869-4A1C-9050-57FFC227469F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9370" yWindow="4230" windowWidth="21240" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9370" yWindow="4230" windowWidth="25620" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -68,51 +68,43 @@
 （如不需要，请填null"或不填写）"</t>
   </si>
   <si>
+    <t>aiarts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录平台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>"null"</t>
-  </si>
-  <si>
-    <t>/custom-user-dashboard-backend/auth/login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>aiarts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录接口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录平台</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "userName": "admin",
-    "password": "e10adc3949ba59abbe56e057f20f883e"
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/custom-user-dashboard-backend/auth/currentUser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json","token":_token}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,26 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -171,15 +145,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,22 +160,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -479,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -545,47 +518,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="140" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:14" ht="70" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" tooltip="http://192.168.11.165:30096/usercenter/version-book/org/query/1.0" display="/usercenter/version-book/org/query/1.0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>